--- a/cos/cos-faculty.xlsx
+++ b/cos/cos-faculty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garza/Development-vpaa/csv-tool/cos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CBB4E7-4494-C847-9C84-BB64176AC49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0D6C8-2422-9F46-A70D-082B956420D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="700" windowWidth="14960" windowHeight="29200" xr2:uid="{82FE2C84-7BFF-2445-AEA8-601B74FE01FE}"/>
+    <workbookView xWindow="12560" yWindow="500" windowWidth="14960" windowHeight="29200" xr2:uid="{82FE2C84-7BFF-2445-AEA8-601B74FE01FE}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -13597,7 +13597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13654,18 +13654,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13689,6 +13677,20 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -13912,20 +13914,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -13988,15 +13976,15 @@
       <sheetName val="Redirects"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14009,26 +13997,26 @@
     <sortCondition ref="C1:C308"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0A6EFCF2-2FD4-8B42-8C4D-8BDFD02BB416}" name="Last" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{CD5FF2E0-8559-4243-A3B9-DC53C5CE8ECC}" name="First" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2803C3B8-856A-AB47-AA65-64987520D991}" name="LastFirst" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{5D4AEAA4-ABB8-C546-8EDA-FF4BD8687E4F}" name="honorific" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{FFFC6023-FB92-514D-8F13-43FA99908EE6}" name="Title" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{EF4B27E8-8819-C947-A0AD-07E97A015C4F}" name="Degrees" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{A7C867A7-ED94-E244-B100-42F9D12A4E07}" name="Areas of Specialization" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{812FCBD8-EA96-194D-85FF-70E12BCDD77C}" name="Discipline" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{D1758E96-F748-A845-A3FA-E14344899B55}" name="Tag" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C0B7D865-6F44-954D-A5CE-884A817937FB}" name="Email" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{19145C01-B16F-D146-B3AF-DDC28AB6C0AF}" name="Phone" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{C3A8AAEE-2456-6640-8AD1-A4672BCF2FC6}" name="Room" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{49EE38D0-A121-4643-A15E-E3C432F4C08B}" name="casURI" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{0A6EFCF2-2FD4-8B42-8C4D-8BDFD02BB416}" name="Last" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CD5FF2E0-8559-4243-A3B9-DC53C5CE8ECC}" name="First" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2803C3B8-856A-AB47-AA65-64987520D991}" name="LastFirst" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{5D4AEAA4-ABB8-C546-8EDA-FF4BD8687E4F}" name="honorific" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{FFFC6023-FB92-514D-8F13-43FA99908EE6}" name="Title" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{EF4B27E8-8819-C947-A0AD-07E97A015C4F}" name="Degrees" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{A7C867A7-ED94-E244-B100-42F9D12A4E07}" name="Areas of Specialization" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{812FCBD8-EA96-194D-85FF-70E12BCDD77C}" name="Discipline" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{D1758E96-F748-A845-A3FA-E14344899B55}" name="Tag" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{C0B7D865-6F44-954D-A5CE-884A817937FB}" name="Email" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{19145C01-B16F-D146-B3AF-DDC28AB6C0AF}" name="Phone" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{C3A8AAEE-2456-6640-8AD1-A4672BCF2FC6}" name="Room" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{49EE38D0-A121-4643-A15E-E3C432F4C08B}" name="casURI" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.CONCAT("faculty/_blocks/", [1]!Table2[[#This Row],[Tag]], "/", [1]!Table2[[#This Row],[LastFirst]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F5C57413-C8A9-1945-8DBD-37FC17CC7667}" name="casAssetID" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{DAC08424-B334-A146-A98C-5280CDE8BAB0}" name="pageURI" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{F5C57413-C8A9-1945-8DBD-37FC17CC7667}" name="casAssetID" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{DAC08424-B334-A146-A98C-5280CDE8BAB0}" name="pageURI" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.CONCAT("faculty/profiles/", [1]!Table2[[#This Row],[LastFirst]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{532D7BF8-0A40-8E47-B22D-EF0AE623BA6B}" name="uuid" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{532D7BF8-0A40-8E47-B22D-EF0AE623BA6B}" name="uuid" dataDxfId="2"/>
     <tableColumn id="17" xr3:uid="{E1C9C822-4CDD-3A40-B02F-AE111A1337F4}" name="lab-personal-publication link" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{5B75049A-672A-4A45-B659-4AD6E10B018F}" name="Notes" dataDxfId="0"/>
   </tableColumns>
@@ -14335,7 +14323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E049F565-607C-EB43-A546-CF2E31D70242}">
   <dimension ref="A1:R308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -14623,7 +14611,7 @@
       <c r="E6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>719</v>
       </c>
@@ -15497,7 +15485,7 @@
       <c r="E23" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="5" t="s">
         <v>370</v>
       </c>
@@ -16009,7 +15997,7 @@
       <c r="E33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="8" t="s">
         <v>551</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -16115,7 +16103,7 @@
       <c r="E35" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
         <v>392</v>
       </c>
@@ -17644,7 +17632,7 @@
       <c r="E65" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="20"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="5" t="s">
         <v>633</v>
       </c>
@@ -17746,7 +17734,7 @@
       <c r="E67" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="8" t="s">
         <v>497</v>
       </c>
       <c r="G67" s="5"/>
@@ -19168,7 +19156,7 @@
       <c r="E95" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="F95" s="8" t="s">
         <v>648</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -19472,7 +19460,7 @@
       <c r="E101" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="8" t="s">
         <v>450</v>
       </c>
       <c r="G101" s="5" t="s">
@@ -19670,7 +19658,7 @@
       <c r="E105" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F105" s="21"/>
+      <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
         <v>444</v>
       </c>
@@ -20182,7 +20170,7 @@
       <c r="E115" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F115" s="20" t="s">
+      <c r="F115" s="8" t="s">
         <v>399</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -20286,7 +20274,7 @@
       <c r="E117" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="F117" s="8" t="s">
         <v>676</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -20651,7 +20639,7 @@
       <c r="E124" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="F124" s="8" t="s">
         <v>583</v>
       </c>
       <c r="G124" s="5" t="s">
@@ -20856,7 +20844,7 @@
       <c r="E128" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F128" s="20" t="s">
+      <c r="F128" s="8" t="s">
         <v>432</v>
       </c>
       <c r="G128" s="5" t="s">
@@ -21304,7 +21292,7 @@
       <c r="E137" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F137" s="12" t="s">
         <v>622</v>
       </c>
       <c r="G137" s="5" t="s">
@@ -21513,7 +21501,7 @@
       <c r="E141" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F141" s="20" t="s">
+      <c r="F141" s="8" t="s">
         <v>704</v>
       </c>
       <c r="G141" s="5"/>
@@ -21611,7 +21599,7 @@
       <c r="E143" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F143" s="21"/>
+      <c r="F143" s="5"/>
       <c r="G143" s="5" t="s">
         <v>641</v>
       </c>
@@ -21767,7 +21755,7 @@
       <c r="E146" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F146" s="21" t="s">
+      <c r="F146" s="5" t="s">
         <v>407</v>
       </c>
       <c r="G146" s="5" t="s">
@@ -21819,7 +21807,7 @@
       <c r="E147" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F147" s="20" t="s">
+      <c r="F147" s="8" t="s">
         <v>667</v>
       </c>
       <c r="G147" s="5" t="s">
@@ -22186,7 +22174,7 @@
       <c r="E154" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="F154" s="12" t="s">
         <v>416</v>
       </c>
       <c r="G154" s="5" t="s">
@@ -22438,7 +22426,7 @@
       <c r="E159" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F159" s="20" t="s">
+      <c r="F159" s="8" t="s">
         <v>437</v>
       </c>
       <c r="G159" s="5" t="s">
@@ -22488,7 +22476,7 @@
       <c r="E160" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F160" s="20" t="s">
+      <c r="F160" s="8" t="s">
         <v>739</v>
       </c>
       <c r="G160" s="5" t="s">
@@ -22640,7 +22628,7 @@
       <c r="E163" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F163" s="21" t="s">
+      <c r="F163" s="5" t="s">
         <v>377</v>
       </c>
       <c r="G163" s="5" t="s">
@@ -23615,7 +23603,7 @@
       <c r="E182" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="F182" s="20" t="s">
+      <c r="F182" s="8" t="s">
         <v>504</v>
       </c>
       <c r="G182" s="5" t="s">
@@ -24165,7 +24153,7 @@
       <c r="E193" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F193" s="20" t="s">
+      <c r="F193" s="8" t="s">
         <v>487</v>
       </c>
       <c r="G193" s="5" t="s">
@@ -24219,7 +24207,7 @@
       <c r="E194" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F194" s="20" t="s">
+      <c r="F194" s="8" t="s">
         <v>542</v>
       </c>
       <c r="G194" s="5" t="s">
@@ -24421,7 +24409,7 @@
       <c r="E198" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F198" s="21" t="s">
+      <c r="F198" s="5" t="s">
         <v>523</v>
       </c>
       <c r="G198" s="5" t="s">
@@ -25358,7 +25346,7 @@
       <c r="E216" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F216" s="20" t="s">
+      <c r="F216" s="8" t="s">
         <v>560</v>
       </c>
       <c r="G216" s="5"/>
@@ -26124,7 +26112,7 @@
       <c r="E231" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F231" s="20" t="s">
+      <c r="F231" s="8" t="s">
         <v>726</v>
       </c>
       <c r="G231" s="5" t="s">
@@ -26221,7 +26209,7 @@
       <c r="E233" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F233" s="21"/>
+      <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
         <v>591</v>
       </c>
@@ -26873,7 +26861,7 @@
       <c r="E246" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F246" s="20" t="s">
+      <c r="F246" s="8" t="s">
         <v>709</v>
       </c>
       <c r="G246" s="5" t="s">
@@ -27439,7 +27427,7 @@
       <c r="E257" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F257" s="21"/>
+      <c r="F257" s="5"/>
       <c r="G257" s="5" t="s">
         <v>733</v>
       </c>
@@ -27731,7 +27719,7 @@
       <c r="E263" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F263" s="20" t="s">
+      <c r="F263" s="8" t="s">
         <v>369</v>
       </c>
       <c r="G263" s="5" t="s">
@@ -28195,7 +28183,7 @@
       <c r="E272" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F272" s="20"/>
+      <c r="F272" s="8"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5" t="s">
         <v>254</v>
@@ -28339,7 +28327,7 @@
       <c r="E275" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F275" s="20" t="s">
+      <c r="F275" s="8" t="s">
         <v>513</v>
       </c>
       <c r="G275" s="5" t="s">
@@ -28607,7 +28595,7 @@
       <c r="E280" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F280" s="21"/>
+      <c r="F280" s="5"/>
       <c r="G280" s="5" t="s">
         <v>385</v>
       </c>
@@ -29065,7 +29053,7 @@
       <c r="E289" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F289" s="20" t="s">
+      <c r="F289" s="8" t="s">
         <v>459</v>
       </c>
       <c r="G289" s="5" t="s">
@@ -29885,7 +29873,7 @@
       <c r="E305" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F305" s="21" t="s">
+      <c r="F305" s="5" t="s">
         <v>533</v>
       </c>
       <c r="G305" s="5" t="s">
@@ -29991,7 +29979,7 @@
       <c r="E307" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F307" s="23" t="s">
+      <c r="F307" s="11" t="s">
         <v>566</v>
       </c>
       <c r="G307" s="5" t="s">
